--- a/data/pca/factorExposure/factorExposure_2009-05-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01720522594813447</v>
+        <v>-0.01669942231590612</v>
       </c>
       <c r="C2">
-        <v>0.001879121935377999</v>
+        <v>-0.001216105587135374</v>
       </c>
       <c r="D2">
-        <v>0.009926831025072781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009919198850494321</v>
+      </c>
+      <c r="E2">
+        <v>0.002687345896868599</v>
+      </c>
+      <c r="F2">
+        <v>-0.01261816593208973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08860189661974711</v>
+        <v>-0.09132261549181951</v>
       </c>
       <c r="C4">
-        <v>0.02037553595126961</v>
+        <v>-0.01568230183307908</v>
       </c>
       <c r="D4">
-        <v>0.07901657580209842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08252510678924906</v>
+      </c>
+      <c r="E4">
+        <v>0.02759302237162265</v>
+      </c>
+      <c r="F4">
+        <v>0.03359868038647072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7.939246522181441e-06</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.030354564878515e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0001905406215303622</v>
+      </c>
+      <c r="E5">
+        <v>0.0001464940144612681</v>
+      </c>
+      <c r="F5">
+        <v>-8.271942780999363e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.154851715694456</v>
+        <v>-0.1625990327759523</v>
       </c>
       <c r="C6">
-        <v>0.03254502645373488</v>
+        <v>-0.03110987900026499</v>
       </c>
       <c r="D6">
-        <v>-0.03586144926902572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02512432564365697</v>
+      </c>
+      <c r="E6">
+        <v>0.01318395865138366</v>
+      </c>
+      <c r="F6">
+        <v>0.03992414891333622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0579676756641408</v>
+        <v>-0.06086589601747772</v>
       </c>
       <c r="C7">
-        <v>0.001903354842980073</v>
+        <v>0.001394498016790892</v>
       </c>
       <c r="D7">
-        <v>0.04757595303283633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05301603951652879</v>
+      </c>
+      <c r="E7">
+        <v>0.01378016784985487</v>
+      </c>
+      <c r="F7">
+        <v>0.04896480001937323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0604823045133922</v>
+        <v>-0.05688453392899376</v>
       </c>
       <c r="C8">
-        <v>-0.009587095597079903</v>
+        <v>0.01157399323994083</v>
       </c>
       <c r="D8">
-        <v>0.02653896501993409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03039063375564358</v>
+      </c>
+      <c r="E8">
+        <v>0.0195360071979053</v>
+      </c>
+      <c r="F8">
+        <v>-0.02882150100897077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.069008192444786</v>
+        <v>-0.07123266743319699</v>
       </c>
       <c r="C9">
-        <v>0.01624835481517753</v>
+        <v>-0.01119943131589512</v>
       </c>
       <c r="D9">
-        <v>0.08137730138623649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0857631098597115</v>
+      </c>
+      <c r="E9">
+        <v>0.02577067900854489</v>
+      </c>
+      <c r="F9">
+        <v>0.0492901789918602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08566935277069292</v>
+        <v>-0.08715029754774149</v>
       </c>
       <c r="C10">
-        <v>0.01767920479935674</v>
+        <v>-0.02243348497097666</v>
       </c>
       <c r="D10">
-        <v>-0.1669028672346298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1591989035402827</v>
+      </c>
+      <c r="E10">
+        <v>-0.03303439292495816</v>
+      </c>
+      <c r="F10">
+        <v>-0.06009306957991985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08970000165348865</v>
+        <v>-0.08637839268954606</v>
       </c>
       <c r="C11">
-        <v>0.01767958701665351</v>
+        <v>-0.01227030946332691</v>
       </c>
       <c r="D11">
-        <v>0.11245607528291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1184372769462644</v>
+      </c>
+      <c r="E11">
+        <v>0.05244234511131929</v>
+      </c>
+      <c r="F11">
+        <v>0.02599356842114656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0971954047483882</v>
+        <v>-0.09102433856981157</v>
       </c>
       <c r="C12">
-        <v>0.01648827469008701</v>
+        <v>-0.01021771206618918</v>
       </c>
       <c r="D12">
-        <v>0.1187296275435725</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1336617603855814</v>
+      </c>
+      <c r="E12">
+        <v>0.05306750483795334</v>
+      </c>
+      <c r="F12">
+        <v>0.03208313273023199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04495229579884838</v>
+        <v>-0.04403788063546842</v>
       </c>
       <c r="C13">
-        <v>0.007006099578061163</v>
+        <v>-0.003280657771469719</v>
       </c>
       <c r="D13">
-        <v>0.04636368531736438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05438033623738483</v>
+      </c>
+      <c r="E13">
+        <v>0.0008558360510795541</v>
+      </c>
+      <c r="F13">
+        <v>0.0046185285504129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02004386243230771</v>
+        <v>-0.02348204798319944</v>
       </c>
       <c r="C14">
-        <v>0.01527478540292197</v>
+        <v>-0.01410970311284738</v>
       </c>
       <c r="D14">
-        <v>0.03232707595537698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03316576478676272</v>
+      </c>
+      <c r="E14">
+        <v>0.02210886975474833</v>
+      </c>
+      <c r="F14">
+        <v>0.01204526126242687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03434532015212029</v>
+        <v>-0.03443962889834892</v>
       </c>
       <c r="C15">
-        <v>0.007964579657715258</v>
+        <v>-0.006124688197404908</v>
       </c>
       <c r="D15">
-        <v>0.04605433409383775</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04642238260423856</v>
+      </c>
+      <c r="E15">
+        <v>0.008822886183135601</v>
+      </c>
+      <c r="F15">
+        <v>0.03013513725584399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07350276486250081</v>
+        <v>-0.07113179058320683</v>
       </c>
       <c r="C16">
-        <v>0.007612714257054251</v>
+        <v>-0.0019947365905153</v>
       </c>
       <c r="D16">
-        <v>0.11583256154675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1293703729400703</v>
+      </c>
+      <c r="E16">
+        <v>0.06483280326364485</v>
+      </c>
+      <c r="F16">
+        <v>0.02947334641968893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001366607429983356</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0004575819107448535</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002228048772292191</v>
+      </c>
+      <c r="E17">
+        <v>0.001624187274075966</v>
+      </c>
+      <c r="F17">
+        <v>-0.002307645769032239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02570229151143025</v>
+        <v>-0.04363753812585797</v>
       </c>
       <c r="C18">
-        <v>-0.001428259709964879</v>
+        <v>0.001318838559088391</v>
       </c>
       <c r="D18">
-        <v>0.02243551650125452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01691775538604756</v>
+      </c>
+      <c r="E18">
+        <v>-0.003168479375460135</v>
+      </c>
+      <c r="F18">
+        <v>-0.008935361516607218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06424851480000464</v>
+        <v>-0.06279751814612466</v>
       </c>
       <c r="C20">
-        <v>0.006079562122661556</v>
+        <v>-0.002130923464993302</v>
       </c>
       <c r="D20">
-        <v>0.07273250220328614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07825114629758054</v>
+      </c>
+      <c r="E20">
+        <v>0.06299340711244522</v>
+      </c>
+      <c r="F20">
+        <v>0.03147724280469147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04123058117284937</v>
+        <v>-0.04302933735543725</v>
       </c>
       <c r="C21">
-        <v>0.01040530553505696</v>
+        <v>-0.0076060311971617</v>
       </c>
       <c r="D21">
-        <v>0.03500367076909938</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03630490266135431</v>
+      </c>
+      <c r="E21">
+        <v>0.004085348295173073</v>
+      </c>
+      <c r="F21">
+        <v>-0.02380835710224368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03978056624989197</v>
+        <v>-0.04169629569225892</v>
       </c>
       <c r="C22">
-        <v>0.001154557621616828</v>
+        <v>-0.0008144270182356917</v>
       </c>
       <c r="D22">
-        <v>0.0008962874638923879</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007395824021826157</v>
+      </c>
+      <c r="E22">
+        <v>0.0353119011183151</v>
+      </c>
+      <c r="F22">
+        <v>-0.05165898688746574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03974006160924539</v>
+        <v>-0.04166513724286532</v>
       </c>
       <c r="C23">
-        <v>0.001139430015063194</v>
+        <v>-0.0008025289915894761</v>
       </c>
       <c r="D23">
-        <v>0.000928069677861828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007409976380408611</v>
+      </c>
+      <c r="E23">
+        <v>0.03534160283874613</v>
+      </c>
+      <c r="F23">
+        <v>-0.05171356243479314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08044929952425756</v>
+        <v>-0.0767853723971544</v>
       </c>
       <c r="C24">
-        <v>0.008246132885749323</v>
+        <v>-0.002749328671547233</v>
       </c>
       <c r="D24">
-        <v>0.1167055178062522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1222047720909091</v>
+      </c>
+      <c r="E24">
+        <v>0.05170337369185456</v>
+      </c>
+      <c r="F24">
+        <v>0.03216372370342557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08579713420864227</v>
+        <v>-0.08216646463306591</v>
       </c>
       <c r="C25">
-        <v>0.01073377330278699</v>
+        <v>-0.00576313972845097</v>
       </c>
       <c r="D25">
-        <v>0.1045712928922484</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1105932515291353</v>
+      </c>
+      <c r="E25">
+        <v>0.03510425333831398</v>
+      </c>
+      <c r="F25">
+        <v>0.028470840305781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05793892104590621</v>
+        <v>-0.06109391882700447</v>
       </c>
       <c r="C26">
-        <v>0.01862756531100081</v>
+        <v>-0.01531739727706402</v>
       </c>
       <c r="D26">
-        <v>0.03670578633971135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0463303615167828</v>
+      </c>
+      <c r="E26">
+        <v>0.03460995982827444</v>
+      </c>
+      <c r="F26">
+        <v>-0.006316228780251488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1364805102739487</v>
+        <v>-0.1453253484430628</v>
       </c>
       <c r="C28">
-        <v>0.01792837352573428</v>
+        <v>-0.02540543763101098</v>
       </c>
       <c r="D28">
-        <v>-0.2619160546889948</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2572466233260696</v>
+      </c>
+      <c r="E28">
+        <v>-0.0674881664979957</v>
+      </c>
+      <c r="F28">
+        <v>0.00394801844753252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02600309272164782</v>
+        <v>-0.02843594746806505</v>
       </c>
       <c r="C29">
-        <v>0.009861353127231047</v>
+        <v>-0.009162124547271442</v>
       </c>
       <c r="D29">
-        <v>0.03052063212643021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03053459301214825</v>
+      </c>
+      <c r="E29">
+        <v>0.01819721094690558</v>
+      </c>
+      <c r="F29">
+        <v>-0.01361825678942743</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05778125873788169</v>
+        <v>-0.05518085540028275</v>
       </c>
       <c r="C30">
-        <v>0.007840311216551672</v>
+        <v>-0.002944810917147262</v>
       </c>
       <c r="D30">
-        <v>0.07867402888064914</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08734091619638426</v>
+      </c>
+      <c r="E30">
+        <v>0.01382029722933801</v>
+      </c>
+      <c r="F30">
+        <v>0.08164659220898653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05034409157963619</v>
+        <v>-0.05103097863402126</v>
       </c>
       <c r="C31">
-        <v>0.01790842057440285</v>
+        <v>-0.01650472114511324</v>
       </c>
       <c r="D31">
-        <v>0.02237058160832374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0250578671392061</v>
+      </c>
+      <c r="E31">
+        <v>0.03001181655325375</v>
+      </c>
+      <c r="F31">
+        <v>-0.001107098483053207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04686207820260067</v>
+        <v>-0.05115810321756482</v>
       </c>
       <c r="C32">
-        <v>0.002498862538797378</v>
+        <v>0.001014598261445914</v>
       </c>
       <c r="D32">
-        <v>0.02852839915137254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03303058323187168</v>
+      </c>
+      <c r="E32">
+        <v>0.03546901248690017</v>
+      </c>
+      <c r="F32">
+        <v>0.003255007537209334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09002685625474359</v>
+        <v>-0.08997994761844087</v>
       </c>
       <c r="C33">
-        <v>0.01436441423709435</v>
+        <v>-0.008347014073511573</v>
       </c>
       <c r="D33">
-        <v>0.09145739071744545</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1048033631510031</v>
+      </c>
+      <c r="E33">
+        <v>0.04954280674353778</v>
+      </c>
+      <c r="F33">
+        <v>0.04440972490584411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06864468253404181</v>
+        <v>-0.06672469123519607</v>
       </c>
       <c r="C34">
-        <v>0.01613308342924758</v>
+        <v>-0.01120482294846256</v>
       </c>
       <c r="D34">
-        <v>0.09857195810404346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1108105919419591</v>
+      </c>
+      <c r="E34">
+        <v>0.03974865313025598</v>
+      </c>
+      <c r="F34">
+        <v>0.03677108610108488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02642124894504585</v>
+        <v>-0.02786739743542248</v>
       </c>
       <c r="C35">
-        <v>0.004431786151627682</v>
+        <v>-0.003926318478014057</v>
       </c>
       <c r="D35">
-        <v>0.008474227864419209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01150356149554687</v>
+      </c>
+      <c r="E35">
+        <v>0.01629816040222348</v>
+      </c>
+      <c r="F35">
+        <v>0.0001148108982567535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02453038134435538</v>
+        <v>-0.02862474310318424</v>
       </c>
       <c r="C36">
-        <v>0.00884667553120729</v>
+        <v>-0.00737695334134189</v>
       </c>
       <c r="D36">
-        <v>0.03748855098265946</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0399626466594581</v>
+      </c>
+      <c r="E36">
+        <v>0.02000580402689013</v>
+      </c>
+      <c r="F36">
+        <v>0.01573039609952233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002389713554740269</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.000751152246718261</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003172410339269344</v>
+      </c>
+      <c r="E37">
+        <v>0.0008122655229367208</v>
+      </c>
+      <c r="F37">
+        <v>-0.001250791897766257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1092659919451255</v>
+        <v>-0.09844807649393109</v>
       </c>
       <c r="C39">
-        <v>0.02366192928953668</v>
+        <v>-0.01699850361348719</v>
       </c>
       <c r="D39">
-        <v>0.150138492555427</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1523044838138669</v>
+      </c>
+      <c r="E39">
+        <v>0.06363653235147614</v>
+      </c>
+      <c r="F39">
+        <v>0.02345155043058714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03919513013021465</v>
+        <v>-0.04462717457499157</v>
       </c>
       <c r="C40">
-        <v>0.01012770595116756</v>
+        <v>-0.008733652954211604</v>
       </c>
       <c r="D40">
-        <v>0.02390519634220297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03242106321357078</v>
+      </c>
+      <c r="E40">
+        <v>0.0043896567956763</v>
+      </c>
+      <c r="F40">
+        <v>-0.01668374738357162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02516046109689531</v>
+        <v>-0.02751039972372429</v>
       </c>
       <c r="C41">
-        <v>0.007940839167107994</v>
+        <v>-0.007147609248579163</v>
       </c>
       <c r="D41">
-        <v>0.007548373072183027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.009945926334356023</v>
+      </c>
+      <c r="E41">
+        <v>0.01380738546025333</v>
+      </c>
+      <c r="F41">
+        <v>-0.007124364629992328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04120025692167653</v>
+        <v>-0.03986443998596614</v>
       </c>
       <c r="C43">
-        <v>0.008616405511154807</v>
+        <v>-0.007955121435146871</v>
       </c>
       <c r="D43">
-        <v>0.01798256327295622</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02002608039085085</v>
+      </c>
+      <c r="E43">
+        <v>0.028225094454767</v>
+      </c>
+      <c r="F43">
+        <v>-0.01597558295051993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06374392811773956</v>
+        <v>-0.0742890824099685</v>
       </c>
       <c r="C44">
-        <v>0.0234738916962763</v>
+        <v>-0.01936420174389805</v>
       </c>
       <c r="D44">
-        <v>0.09270998912707926</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09237190260524265</v>
+      </c>
+      <c r="E44">
+        <v>0.05857658650912467</v>
+      </c>
+      <c r="F44">
+        <v>0.1717406454901224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02043890078619438</v>
+        <v>-0.02367337432649665</v>
       </c>
       <c r="C46">
-        <v>0.00451564053906181</v>
+        <v>-0.003393174829762722</v>
       </c>
       <c r="D46">
-        <v>0.008915439095185865</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01274480619636546</v>
+      </c>
+      <c r="E46">
+        <v>0.03019050371273529</v>
+      </c>
+      <c r="F46">
+        <v>-0.005590473046867623</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05380762964012542</v>
+        <v>-0.05328439040133097</v>
       </c>
       <c r="C47">
-        <v>0.006289023200497183</v>
+        <v>-0.005078827180136112</v>
       </c>
       <c r="D47">
-        <v>0.006966498377373599</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01102753924998447</v>
+      </c>
+      <c r="E47">
+        <v>0.02569060628285133</v>
+      </c>
+      <c r="F47">
+        <v>-0.03124069740993927</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0483021548308535</v>
+        <v>-0.05159088779243234</v>
       </c>
       <c r="C48">
-        <v>0.005709260389686424</v>
+        <v>-0.00291992817524143</v>
       </c>
       <c r="D48">
-        <v>0.04837616926739507</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05125660631612912</v>
+      </c>
+      <c r="E48">
+        <v>-0.002474277634814847</v>
+      </c>
+      <c r="F48">
+        <v>0.01342380512502617</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1977178436606256</v>
+        <v>-0.1998592156817154</v>
       </c>
       <c r="C49">
-        <v>0.02506226563272107</v>
+        <v>-0.02266942036256683</v>
       </c>
       <c r="D49">
-        <v>-0.01170858580568527</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00551168829063982</v>
+      </c>
+      <c r="E49">
+        <v>0.02765377965378047</v>
+      </c>
+      <c r="F49">
+        <v>0.05059094876596851</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04917363425579886</v>
+        <v>-0.05173387641815908</v>
       </c>
       <c r="C50">
-        <v>0.01376840698897664</v>
+        <v>-0.01233034436587352</v>
       </c>
       <c r="D50">
-        <v>0.02229116022138184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02510264494801353</v>
+      </c>
+      <c r="E50">
+        <v>0.03308551474497348</v>
+      </c>
+      <c r="F50">
+        <v>0.009739255495026522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1540859191075575</v>
+        <v>-0.1472341216717752</v>
       </c>
       <c r="C52">
-        <v>0.02295449398260608</v>
+        <v>-0.02033686623149883</v>
       </c>
       <c r="D52">
-        <v>0.04183801634540056</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04456939409669314</v>
+      </c>
+      <c r="E52">
+        <v>0.02095856737751393</v>
+      </c>
+      <c r="F52">
+        <v>0.04151431757595724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1746143260800388</v>
+        <v>-0.1684268736426668</v>
       </c>
       <c r="C53">
-        <v>0.02449288394951193</v>
+        <v>-0.02376643315405019</v>
       </c>
       <c r="D53">
-        <v>0.005896218784855917</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.007684166252092024</v>
+      </c>
+      <c r="E53">
+        <v>0.02732636033472679</v>
+      </c>
+      <c r="F53">
+        <v>0.07500173200637957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01618128677718967</v>
+        <v>-0.01859483353564181</v>
       </c>
       <c r="C54">
-        <v>0.01207408469562061</v>
+        <v>-0.0110200095489141</v>
       </c>
       <c r="D54">
-        <v>0.02962378666451166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0289462265885015</v>
+      </c>
+      <c r="E54">
+        <v>0.0211445388095262</v>
+      </c>
+      <c r="F54">
+        <v>-0.002781563459250125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1181778758689047</v>
+        <v>-0.1160529169876364</v>
       </c>
       <c r="C55">
-        <v>0.02110565975198378</v>
+        <v>-0.0204977022596692</v>
       </c>
       <c r="D55">
-        <v>0.003273322644108244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009675902096407313</v>
+      </c>
+      <c r="E55">
+        <v>0.02549902717765898</v>
+      </c>
+      <c r="F55">
+        <v>0.0461866391193699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1804567617268792</v>
+        <v>-0.1751262950339612</v>
       </c>
       <c r="C56">
-        <v>0.02247839828826658</v>
+        <v>-0.02187997576243657</v>
       </c>
       <c r="D56">
-        <v>-0.007314595118003674</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001425183486119173</v>
+      </c>
+      <c r="E56">
+        <v>0.03047001208384406</v>
+      </c>
+      <c r="F56">
+        <v>0.05498040614804256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04490006145063045</v>
+        <v>-0.04391117664361338</v>
       </c>
       <c r="C58">
-        <v>0.004479543920239953</v>
+        <v>0.0002522042395745052</v>
       </c>
       <c r="D58">
-        <v>0.06574286891920098</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07609380728001752</v>
+      </c>
+      <c r="E58">
+        <v>0.03592727068967778</v>
+      </c>
+      <c r="F58">
+        <v>-0.03484035068484877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1619865747588298</v>
+        <v>-0.1686404018876102</v>
       </c>
       <c r="C59">
-        <v>0.01967092912362045</v>
+        <v>-0.02564879785279086</v>
       </c>
       <c r="D59">
-        <v>-0.222373405806152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2167489938398934</v>
+      </c>
+      <c r="E59">
+        <v>-0.05238807315820725</v>
+      </c>
+      <c r="F59">
+        <v>-0.04218848757707568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.238019568294313</v>
+        <v>-0.2297685335766561</v>
       </c>
       <c r="C60">
-        <v>0.007113300908123388</v>
+        <v>-0.002998567015378506</v>
       </c>
       <c r="D60">
-        <v>0.03733901521775424</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04007454683155294</v>
+      </c>
+      <c r="E60">
+        <v>0.0002630357399845157</v>
+      </c>
+      <c r="F60">
+        <v>0.006581989773005129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08042945562962768</v>
+        <v>-0.07437252839793113</v>
       </c>
       <c r="C61">
-        <v>0.01745134850396114</v>
+        <v>-0.01171524028074801</v>
       </c>
       <c r="D61">
-        <v>0.1118133616859192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1176435478335937</v>
+      </c>
+      <c r="E61">
+        <v>0.04240403962801257</v>
+      </c>
+      <c r="F61">
+        <v>0.01059943556772871</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.172726787510821</v>
+        <v>-0.1682999009100168</v>
       </c>
       <c r="C62">
-        <v>0.02609462927051194</v>
+        <v>-0.0243919521863006</v>
       </c>
       <c r="D62">
-        <v>0.0001712569152870511</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.008041107707208976</v>
+      </c>
+      <c r="E62">
+        <v>0.03348587438603612</v>
+      </c>
+      <c r="F62">
+        <v>0.04151926458821084</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04254070339532265</v>
+        <v>-0.04621112509717661</v>
       </c>
       <c r="C63">
-        <v>0.005823592610997073</v>
+        <v>-0.002709679431399286</v>
       </c>
       <c r="D63">
-        <v>0.05050980511938336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06075105306068038</v>
+      </c>
+      <c r="E63">
+        <v>0.02629637250737229</v>
+      </c>
+      <c r="F63">
+        <v>0.001200648717430696</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1155831595684675</v>
+        <v>-0.1122775121739641</v>
       </c>
       <c r="C64">
-        <v>0.01856666860219421</v>
+        <v>-0.01475439549376502</v>
       </c>
       <c r="D64">
-        <v>0.03389638124733971</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04246081445454881</v>
+      </c>
+      <c r="E64">
+        <v>0.02753235788116873</v>
+      </c>
+      <c r="F64">
+        <v>0.0270653682546531</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1458150312053389</v>
+        <v>-0.1529000586259246</v>
       </c>
       <c r="C65">
-        <v>0.03833506086510836</v>
+        <v>-0.03766753898049715</v>
       </c>
       <c r="D65">
-        <v>-0.05711929842140607</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04529039203104224</v>
+      </c>
+      <c r="E65">
+        <v>0.00670162261371242</v>
+      </c>
+      <c r="F65">
+        <v>0.03698371582197442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1311041194833629</v>
+        <v>-0.1175570519730764</v>
       </c>
       <c r="C66">
-        <v>0.02207466486919038</v>
+        <v>-0.01503199608163629</v>
       </c>
       <c r="D66">
-        <v>0.1335045670791607</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1419316255380365</v>
+      </c>
+      <c r="E66">
+        <v>0.06641924455270334</v>
+      </c>
+      <c r="F66">
+        <v>0.02860287852502627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06399767864268673</v>
+        <v>-0.05672289245914201</v>
       </c>
       <c r="C67">
-        <v>0.007272038295509754</v>
+        <v>-0.004840851625693866</v>
       </c>
       <c r="D67">
-        <v>0.05498240549443598</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05859678530574886</v>
+      </c>
+      <c r="E67">
+        <v>0.02549939463638552</v>
+      </c>
+      <c r="F67">
+        <v>-0.03272190005435759</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1104113497209971</v>
+        <v>-0.1196835747899869</v>
       </c>
       <c r="C68">
-        <v>0.02786700121157052</v>
+        <v>-0.03596867034018515</v>
       </c>
       <c r="D68">
-        <v>-0.2616616827011886</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2581886016467204</v>
+      </c>
+      <c r="E68">
+        <v>-0.08797183590100539</v>
+      </c>
+      <c r="F68">
+        <v>0.000173763452744276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03904738822250495</v>
+        <v>-0.03855089731682475</v>
       </c>
       <c r="C69">
-        <v>0.00273719267486075</v>
+        <v>-0.00170942102315418</v>
       </c>
       <c r="D69">
-        <v>0.008519056291559817</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009606981246670391</v>
+      </c>
+      <c r="E69">
+        <v>0.02828776863680903</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006313810371392492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06882578871646564</v>
+        <v>-0.06845892887854407</v>
       </c>
       <c r="C70">
-        <v>-0.02319623669607676</v>
+        <v>0.02553816431441739</v>
       </c>
       <c r="D70">
-        <v>0.02520691401452865</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02995123557729141</v>
+      </c>
+      <c r="E70">
+        <v>-0.0212752780734179</v>
+      </c>
+      <c r="F70">
+        <v>-0.1849500768018108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1288740597865127</v>
+        <v>-0.1398300159639364</v>
       </c>
       <c r="C71">
-        <v>0.0328352872466913</v>
+        <v>-0.0408545305266237</v>
       </c>
       <c r="D71">
-        <v>-0.2772757977201635</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2682716811123166</v>
+      </c>
+      <c r="E71">
+        <v>-0.09837960961672029</v>
+      </c>
+      <c r="F71">
+        <v>0.003896173107637956</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1371045374159209</v>
+        <v>-0.1438506657935247</v>
       </c>
       <c r="C72">
-        <v>0.03021611319588031</v>
+        <v>-0.03034604334875678</v>
       </c>
       <c r="D72">
-        <v>0.0004095135287090254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002438439713579863</v>
+      </c>
+      <c r="E72">
+        <v>0.03985106581020594</v>
+      </c>
+      <c r="F72">
+        <v>0.02898299585117933</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.20187435646573</v>
+        <v>-0.2033204729506884</v>
       </c>
       <c r="C73">
-        <v>0.02023693822478444</v>
+        <v>-0.01595813445367827</v>
       </c>
       <c r="D73">
-        <v>0.008970007536129582</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0183723048049033</v>
+      </c>
+      <c r="E73">
+        <v>0.06369586267098735</v>
+      </c>
+      <c r="F73">
+        <v>0.04566785489737396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08945096292916468</v>
+        <v>-0.09048601304852139</v>
       </c>
       <c r="C74">
-        <v>0.01524512056564873</v>
+        <v>-0.0142612992333741</v>
       </c>
       <c r="D74">
-        <v>0.0127743638306019</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01665989371975705</v>
+      </c>
+      <c r="E74">
+        <v>0.04038664961500282</v>
+      </c>
+      <c r="F74">
+        <v>0.05216688066631623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1328502528890414</v>
+        <v>-0.124996907721963</v>
       </c>
       <c r="C75">
-        <v>0.03339666860322314</v>
+        <v>-0.03106373522071279</v>
       </c>
       <c r="D75">
-        <v>0.02357982620003333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03062011872415127</v>
+      </c>
+      <c r="E75">
+        <v>0.0554508588182159</v>
+      </c>
+      <c r="F75">
+        <v>0.02204312460664817</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08083637485044892</v>
+        <v>-0.09163103223008784</v>
       </c>
       <c r="C77">
-        <v>0.0151886452864218</v>
+        <v>-0.00991962327800599</v>
       </c>
       <c r="D77">
-        <v>0.1134761107545604</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1175109039221657</v>
+      </c>
+      <c r="E77">
+        <v>0.04950434094024282</v>
+      </c>
+      <c r="F77">
+        <v>0.03582581755539149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09930833097171841</v>
+        <v>-0.09976069402369631</v>
       </c>
       <c r="C78">
-        <v>0.04545403313545253</v>
+        <v>-0.04125970078940679</v>
       </c>
       <c r="D78">
-        <v>0.1122464885047173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.110026678206249</v>
+      </c>
+      <c r="E78">
+        <v>0.07422168494115407</v>
+      </c>
+      <c r="F78">
+        <v>0.05486105107393859</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1681234011166267</v>
+        <v>-0.1637563785482433</v>
       </c>
       <c r="C79">
-        <v>0.02897887995777493</v>
+        <v>-0.02723267315882227</v>
       </c>
       <c r="D79">
-        <v>0.007013783528505887</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01429932030714107</v>
+      </c>
+      <c r="E79">
+        <v>0.04637970287456961</v>
+      </c>
+      <c r="F79">
+        <v>0.01347297474513648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08067477570375883</v>
+        <v>-0.07928955212004182</v>
       </c>
       <c r="C80">
-        <v>0.003708363623284066</v>
+        <v>-0.0008004145963802783</v>
       </c>
       <c r="D80">
-        <v>0.05453363682040974</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0537836808589126</v>
+      </c>
+      <c r="E80">
+        <v>0.03821365922826851</v>
+      </c>
+      <c r="F80">
+        <v>-0.02745096590586844</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1195349638236449</v>
+        <v>-0.114363326092862</v>
       </c>
       <c r="C81">
-        <v>0.03506827775719132</v>
+        <v>-0.03396594718431029</v>
       </c>
       <c r="D81">
-        <v>0.005670860019169975</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01140079611506467</v>
+      </c>
+      <c r="E81">
+        <v>0.0505546128612439</v>
+      </c>
+      <c r="F81">
+        <v>0.0181965444224814</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1653213180885504</v>
+        <v>-0.1638562671099379</v>
       </c>
       <c r="C82">
-        <v>0.02908721774699677</v>
+        <v>-0.02878569257937462</v>
       </c>
       <c r="D82">
-        <v>0.006483018917683162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005225756322979177</v>
+      </c>
+      <c r="E82">
+        <v>0.02441625955238159</v>
+      </c>
+      <c r="F82">
+        <v>0.08385341651647113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05828420388048032</v>
+        <v>-0.05309958330276914</v>
       </c>
       <c r="C83">
-        <v>0.005494327767010054</v>
+        <v>-0.003414893947662291</v>
       </c>
       <c r="D83">
-        <v>0.03593074643486963</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03835691689826053</v>
+      </c>
+      <c r="E83">
+        <v>-0.002173479053038855</v>
+      </c>
+      <c r="F83">
+        <v>-0.03574569958718245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06061229256981593</v>
+        <v>-0.05590275189869764</v>
       </c>
       <c r="C84">
-        <v>0.01420847489158523</v>
+        <v>-0.01122342268837162</v>
       </c>
       <c r="D84">
-        <v>0.07550331690230973</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07717193655931061</v>
+      </c>
+      <c r="E84">
+        <v>0.01331736067969543</v>
+      </c>
+      <c r="F84">
+        <v>0.01599827039136394</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1400620815295026</v>
+        <v>-0.1350226546463601</v>
       </c>
       <c r="C85">
-        <v>0.03274158494245048</v>
+        <v>-0.03166998801951845</v>
       </c>
       <c r="D85">
-        <v>0.005726898602987967</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0100482477601897</v>
+      </c>
+      <c r="E85">
+        <v>0.03554468631463452</v>
+      </c>
+      <c r="F85">
+        <v>0.04888791608762975</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09992580909049864</v>
+        <v>-0.09214372327936883</v>
       </c>
       <c r="C86">
-        <v>-0.002087861926501045</v>
+        <v>0.00516415851795603</v>
       </c>
       <c r="D86">
-        <v>0.01848623149240504</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05179180788337902</v>
+      </c>
+      <c r="E86">
+        <v>0.2405842236163493</v>
+      </c>
+      <c r="F86">
+        <v>-0.8916328213789257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09342422361593036</v>
+        <v>-0.09063126905517054</v>
       </c>
       <c r="C87">
-        <v>0.02907183316171344</v>
+        <v>-0.02108985607885943</v>
       </c>
       <c r="D87">
-        <v>0.07051525252164111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08981312601890522</v>
+      </c>
+      <c r="E87">
+        <v>-0.05857550247829841</v>
+      </c>
+      <c r="F87">
+        <v>0.04917952964669323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06329489050361539</v>
+        <v>-0.06173627974419422</v>
       </c>
       <c r="C88">
-        <v>0.006699730629493053</v>
+        <v>-0.00369446937947944</v>
       </c>
       <c r="D88">
-        <v>0.04937987663434371</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0502453687027697</v>
+      </c>
+      <c r="E88">
+        <v>0.02745996365979296</v>
+      </c>
+      <c r="F88">
+        <v>0.01418596529627363</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1213968051497663</v>
+        <v>-0.1298871989843967</v>
       </c>
       <c r="C89">
-        <v>0.008824736706313199</v>
+        <v>-0.01620528298434065</v>
       </c>
       <c r="D89">
-        <v>-0.238342823076505</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2399374210747999</v>
+      </c>
+      <c r="E89">
+        <v>-0.0896387434205571</v>
+      </c>
+      <c r="F89">
+        <v>-0.009452781020005172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1402525184621309</v>
+        <v>-0.154718488913938</v>
       </c>
       <c r="C90">
-        <v>0.02889259645624418</v>
+        <v>-0.03757554628830764</v>
       </c>
       <c r="D90">
-        <v>-0.2636893999062736</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2659214860674451</v>
+      </c>
+      <c r="E90">
+        <v>-0.1159801317784816</v>
+      </c>
+      <c r="F90">
+        <v>-0.01053829284481511</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1236918616358148</v>
+        <v>-0.1205573706385873</v>
       </c>
       <c r="C91">
-        <v>0.02336752887972585</v>
+        <v>-0.02301030685318971</v>
       </c>
       <c r="D91">
-        <v>-0.02069807741676423</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01578099986257553</v>
+      </c>
+      <c r="E91">
+        <v>0.05509859146209328</v>
+      </c>
+      <c r="F91">
+        <v>-0.00124873571950455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1410487035948493</v>
+        <v>-0.147757026802269</v>
       </c>
       <c r="C92">
-        <v>0.01971244143721289</v>
+        <v>-0.0284723970065711</v>
       </c>
       <c r="D92">
-        <v>-0.2921481508876758</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2904011895489141</v>
+      </c>
+      <c r="E92">
+        <v>-0.1028469279899659</v>
+      </c>
+      <c r="F92">
+        <v>-0.02123457000292164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.144605521536811</v>
+        <v>-0.1572036356037727</v>
       </c>
       <c r="C93">
-        <v>0.02527598573508706</v>
+        <v>-0.03270239554862497</v>
       </c>
       <c r="D93">
-        <v>-0.2609781906259358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2602001771213697</v>
+      </c>
+      <c r="E93">
+        <v>-0.07409796207104399</v>
+      </c>
+      <c r="F93">
+        <v>0.003764152170145888</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1317281161579554</v>
+        <v>-0.1240687517997375</v>
       </c>
       <c r="C94">
-        <v>0.02948427302297879</v>
+        <v>-0.02662868731145476</v>
       </c>
       <c r="D94">
-        <v>0.0377490696353279</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04226685714650421</v>
+      </c>
+      <c r="E94">
+        <v>0.05621524880538713</v>
+      </c>
+      <c r="F94">
+        <v>0.03276807106255139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.126727096684066</v>
+        <v>-0.1293290052312888</v>
       </c>
       <c r="C95">
-        <v>0.01190635877752639</v>
+        <v>-0.006613263720564621</v>
       </c>
       <c r="D95">
-        <v>0.08986216412585775</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.100291776937622</v>
+      </c>
+      <c r="E95">
+        <v>0.06186688309978539</v>
+      </c>
+      <c r="F95">
+        <v>0.006101994852903987</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.140634409639232</v>
+        <v>-0.1306100760155691</v>
       </c>
       <c r="C96">
-        <v>-0.9843884915784511</v>
+        <v>0.9847503119235296</v>
       </c>
       <c r="D96">
-        <v>-0.0220281054489131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05139670202273042</v>
+      </c>
+      <c r="E96">
+        <v>0.04770190103893248</v>
+      </c>
+      <c r="F96">
+        <v>0.0433339257782777</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.187911082667417</v>
+        <v>-0.191939057818157</v>
       </c>
       <c r="C97">
-        <v>-0.001501132410880331</v>
+        <v>0.001922989281793177</v>
       </c>
       <c r="D97">
-        <v>-0.02856757327747662</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0314078285429246</v>
+      </c>
+      <c r="E97">
+        <v>0.03925521398626878</v>
+      </c>
+      <c r="F97">
+        <v>-0.1157744796681471</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1979242144816988</v>
+        <v>-0.2044544775580484</v>
       </c>
       <c r="C98">
-        <v>0.01473551304485443</v>
+        <v>-0.01050180152686843</v>
       </c>
       <c r="D98">
-        <v>0.01210685812387023</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01424810675100784</v>
+      </c>
+      <c r="E98">
+        <v>-0.08093925004719642</v>
+      </c>
+      <c r="F98">
+        <v>-0.09643148829257853</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05697656195294577</v>
+        <v>-0.05626891154379081</v>
       </c>
       <c r="C99">
-        <v>-0.0008993694234236955</v>
+        <v>0.003029264073116977</v>
       </c>
       <c r="D99">
-        <v>0.03504680737664558</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04122419054988245</v>
+      </c>
+      <c r="E99">
+        <v>0.02707213918613372</v>
+      </c>
+      <c r="F99">
+        <v>0.002882145622166287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1495942029066466</v>
+        <v>-0.1355225698110535</v>
       </c>
       <c r="C100">
-        <v>-0.03411185934532899</v>
+        <v>0.04634252095241959</v>
       </c>
       <c r="D100">
-        <v>0.4037592207711652</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3651530305299717</v>
+      </c>
+      <c r="E100">
+        <v>-0.8763346568084335</v>
+      </c>
+      <c r="F100">
+        <v>-0.1671568361997272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02600489997306871</v>
+        <v>-0.02848517585715607</v>
       </c>
       <c r="C101">
-        <v>0.009864474316779673</v>
+        <v>-0.009187355430087182</v>
       </c>
       <c r="D101">
-        <v>0.03007209856994396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0301049374607724</v>
+      </c>
+      <c r="E101">
+        <v>0.01778791473499484</v>
+      </c>
+      <c r="F101">
+        <v>-0.01495458690590261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
